--- a/src/assets/excel/201309.xlsx
+++ b/src/assets/excel/201309.xlsx
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
